--- a/avocado_years.xlsx
+++ b/avocado_years.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="2015-2018" sheetId="1" r:id="rId1"/>
-    <sheet name="yearly_avg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -549,9 +548,6 @@
   </si>
   <si>
     <t>Atlanta</t>
-  </si>
-  <si>
-    <t>avg_price</t>
   </si>
 </sst>
 </file>
@@ -5664,57 +5660,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5">
-        <v>1.29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>